--- a/data/misused_bar_graph_figures/nat_plants/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_plants/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_plants/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74859C6-AAE6-0745-8842-3EE185EDEABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED2FBEC-ACFF-E546-9D1F-25340E3641CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t>DOI</t>
   </si>
@@ -71,13 +71,52 @@
   </si>
   <si>
     <t>P. fluorescens log10(CFU per well)</t>
+  </si>
+  <si>
+    <t>Absolute/Relative</t>
+  </si>
+  <si>
+    <t>Measurement Type</t>
+  </si>
+  <si>
+    <t>Physical quantity I</t>
+  </si>
+  <si>
+    <t>Physical quantity II</t>
+  </si>
+  <si>
+    <t>Log transformation</t>
+  </si>
+  <si>
+    <t>Absolute</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Relative</t>
+  </si>
+  <si>
+    <t>Measurement value</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Colony count</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +130,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -100,7 +154,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -134,18 +188,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,18 +518,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="231" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,8 +546,23 @@
       <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -492,8 +578,23 @@
       <c r="E2" t="s">
         <v>13</v>
       </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -509,8 +610,23 @@
       <c r="E3" t="s">
         <v>13</v>
       </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -526,8 +642,23 @@
       <c r="E4" t="s">
         <v>14</v>
       </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -543,8 +674,23 @@
       <c r="E5" t="s">
         <v>15</v>
       </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -559,6 +705,21 @@
       </c>
       <c r="E6" t="s">
         <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/misused_bar_graph_figures/nat_plants/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_plants/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_plants/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED2FBEC-ACFF-E546-9D1F-25340E3641CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9066F425-7E03-6F46-8DD8-725B1FFAB5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,9 +97,6 @@
     <t>Relative</t>
   </si>
   <si>
-    <t>Measurement value</t>
-  </si>
-  <si>
     <t>Percentage</t>
   </si>
   <si>
@@ -110,6 +107,9 @@
   </si>
   <si>
     <t>Colony count</t>
+  </si>
+  <si>
+    <t>Measured value</t>
   </si>
 </sst>
 </file>
@@ -521,7 +521,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="231" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -582,13 +582,13 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
         <v>23</v>
@@ -614,13 +614,13 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
         <v>23</v>
@@ -646,13 +646,13 @@
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4">
         <v>10</v>
@@ -678,13 +678,13 @@
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>23</v>
@@ -710,13 +710,13 @@
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J6">
         <v>10</v>

--- a/data/misused_bar_graph_figures/nat_plants/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_plants/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_plants/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9066F425-7E03-6F46-8DD8-725B1FFAB5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F94F14-1F64-9B49-9ADC-B80816441EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
     <t>DOI</t>
   </si>
@@ -110,6 +110,24 @@
   </si>
   <si>
     <t>Measured value</t>
+  </si>
+  <si>
+    <t>Fig Index</t>
+  </si>
+  <si>
+    <t>10.1038:s41477-023-01482-1_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41477-023-01482-1_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41477-023-01495-w_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41477-023-01507-9_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41477-023-01539-1_log_fig1</t>
   </si>
 </sst>
 </file>
@@ -518,135 +536,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="231" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
       </c>
       <c r="I2" t="s">
         <v>27</v>
       </c>
       <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
       </c>
       <c r="I3" t="s">
         <v>27</v>
       </c>
       <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
       </c>
       <c r="H4" t="s">
         <v>25</v>
@@ -654,31 +681,34 @@
       <c r="I4" t="s">
         <v>25</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
       </c>
       <c r="H5" t="s">
         <v>26</v>
@@ -686,39 +716,45 @@
       <c r="I5" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>22</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>29</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>28</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>27</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>10</v>
       </c>
     </row>

--- a/data/misused_bar_graph_figures/nat_plants/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_plants/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_plants/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F94F14-1F64-9B49-9ADC-B80816441EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082152DE-F33A-3545-87C6-FFDEB14C2A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
   <si>
     <t>DOI</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Count</t>
   </si>
   <si>
-    <t>Colony count</t>
-  </si>
-  <si>
     <t>Measured value</t>
   </si>
   <si>
@@ -128,6 +125,12 @@
   </si>
   <si>
     <t>10.1038:s41477-023-01539-1_log_fig1</t>
+  </si>
+  <si>
+    <t>Titer</t>
+  </si>
+  <si>
+    <t>Concentration</t>
   </si>
 </sst>
 </file>
@@ -538,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="231" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="231" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -550,7 +553,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -585,7 +588,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -606,7 +609,7 @@
         <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
         <v>27</v>
@@ -620,7 +623,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -641,7 +644,7 @@
         <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
         <v>27</v>
@@ -655,7 +658,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -690,7 +693,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -725,7 +728,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -746,13 +749,13 @@
         <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="K6">
         <v>10</v>

--- a/data/misused_bar_graph_figures/nat_plants/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_plants/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_plants/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082152DE-F33A-3545-87C6-FFDEB14C2A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F178F45F-F2CE-2145-A644-8E0B4ED84659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,9 +58,6 @@
     <t>10.1038:s41477-023-01539-1</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>Number of escapes</t>
   </si>
   <si>
@@ -79,12 +76,6 @@
     <t>Measurement Type</t>
   </si>
   <si>
-    <t>Physical quantity I</t>
-  </si>
-  <si>
-    <t>Physical quantity II</t>
-  </si>
-  <si>
     <t>Log transformation</t>
   </si>
   <si>
@@ -131,6 +122,15 @@
   </si>
   <si>
     <t>Concentration</t>
+  </si>
+  <si>
+    <t>Measurand</t>
+  </si>
+  <si>
+    <t>Measurand Level I</t>
+  </si>
+  <si>
+    <t>Measurand Level II</t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="231" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -553,7 +553,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -568,27 +568,27 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -603,27 +603,27 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -638,27 +638,27 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -673,19 +673,19 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K4">
         <v>10</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -708,27 +708,27 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -743,19 +743,19 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K6">
         <v>10</v>
